--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuiz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F3404-2964-EB41-B282-9197B428FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD4D76-3413-4A4A-9A93-C3853ECB2F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -254,9 +254,6 @@
     <t>a person that has right to perform an obligation (____a "performer")</t>
   </si>
   <si>
-    <t>User(s) refers to the individual defined in Article 1. The same applies____.</t>
-  </si>
-  <si>
     <t>The lawyer filed an____to the motion.</t>
   </si>
   <si>
@@ -306,6 +303,126 @@
   </si>
   <si>
     <t>intent</t>
+  </si>
+  <si>
+    <t>User(s) refers to the individual defined in Article 1. ____.</t>
+  </si>
+  <si>
+    <t>意思表示</t>
+  </si>
+  <si>
+    <t>①委託、②委任</t>
+  </si>
+  <si>
+    <t>Her email served as a___to resign.</t>
+  </si>
+  <si>
+    <t>manifestation of intention</t>
+  </si>
+  <si>
+    <t>彼女のメールは、辞任の意思表示となった。</t>
+  </si>
+  <si>
+    <t>Business cannot be transacted in either House unless one-third___of total membership is present.</t>
+  </si>
+  <si>
+    <t>... or more</t>
+  </si>
+  <si>
+    <t>両議院は、各々その総議員の3分の1以上の出席がなければ、議事を開き議決すること ができない。</t>
+  </si>
+  <si>
+    <t>The___of financial records to the accountant was completed yesterday.</t>
+  </si>
+  <si>
+    <t>entrustment</t>
+  </si>
+  <si>
+    <t>会計士に対する財務記録の委託は、昨日、 完了した。</t>
+  </si>
+  <si>
+    <t>①（販売 運送等の）委託者（末尾 ③参照）、②荷送人</t>
+  </si>
+  <si>
+    <t>The___provided all necessary documents for shipping.</t>
+  </si>
+  <si>
+    <t>consignor</t>
+  </si>
+  <si>
+    <t>委託者は、船積みに必要な書類をすべて提 供した。</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>We will___the task to a team member with the most experience.</t>
+  </si>
+  <si>
+    <t>① （権限を代わって行使することを） 委託する、②委任する</t>
+  </si>
+  <si>
+    <t>私達は、最も経験のあるチームメンバーに 仕事を委託する。</t>
+  </si>
+  <si>
+    <t>entrust</t>
+  </si>
+  <si>
+    <t>（認関係の下で事務を）委託する</t>
+  </si>
+  <si>
+    <t>She decided to___her legal matters to a trusted attorney.</t>
+  </si>
+  <si>
+    <t>彼女は、頼できる弁護士に法律問題を委 託することにした。</t>
+  </si>
+  <si>
+    <t>一般消費者</t>
+  </si>
+  <si>
+    <t>The regulation change impacts all___equally.</t>
+  </si>
+  <si>
+    <t>general consumers</t>
+  </si>
+  <si>
+    <t>この規則の変更は、すべての一般消費者に 等しく影響する。</t>
+  </si>
+  <si>
+    <t>委任（権限の委任）</t>
+  </si>
+  <si>
+    <t>The___of duties was announced in the morning meeting.</t>
+  </si>
+  <si>
+    <t>delegation</t>
+  </si>
+  <si>
+    <t>職務権限の委任が、朝のミーティングで発 表された。</t>
+  </si>
+  <si>
+    <t>委任状</t>
+  </si>
+  <si>
+    <t>He granted his outside counsel the___.</t>
+  </si>
+  <si>
+    <t>power of attorney</t>
+  </si>
+  <si>
+    <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
+  </si>
+  <si>
+    <t>違反</t>
+  </si>
+  <si>
+    <t>The___of contract led to immediate legal actions.</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>契約違反は、直ちに法的措置につながった。</t>
   </si>
 </sst>
 </file>
@@ -692,17 +809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -733,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -750,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -767,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -784,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -801,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -818,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -832,10 +950,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -849,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -866,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -883,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
@@ -900,13 +1018,283 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD4D76-3413-4A4A-9A93-C3853ECB2F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255817B1-2C32-5B44-AC95-7AF0A35F8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -809,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1195,106 +1195,6 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255817B1-2C32-5B44-AC95-7AF0A35F8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E12BD1-57F8-F949-B739-A7120EC74C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -314,27 +314,18 @@
     <t>①委託、②委任</t>
   </si>
   <si>
-    <t>Her email served as a___to resign.</t>
-  </si>
-  <si>
     <t>manifestation of intention</t>
   </si>
   <si>
     <t>彼女のメールは、辞任の意思表示となった。</t>
   </si>
   <si>
-    <t>Business cannot be transacted in either House unless one-third___of total membership is present.</t>
-  </si>
-  <si>
     <t>... or more</t>
   </si>
   <si>
     <t>両議院は、各々その総議員の3分の1以上の出席がなければ、議事を開き議決すること ができない。</t>
   </si>
   <si>
-    <t>The___of financial records to the accountant was completed yesterday.</t>
-  </si>
-  <si>
     <t>entrustment</t>
   </si>
   <si>
@@ -344,9 +335,6 @@
     <t>①（販売 運送等の）委託者（末尾 ③参照）、②荷送人</t>
   </si>
   <si>
-    <t>The___provided all necessary documents for shipping.</t>
-  </si>
-  <si>
     <t>consignor</t>
   </si>
   <si>
@@ -356,9 +344,6 @@
     <t>delegate</t>
   </si>
   <si>
-    <t>We will___the task to a team member with the most experience.</t>
-  </si>
-  <si>
     <t>① （権限を代わって行使することを） 委託する、②委任する</t>
   </si>
   <si>
@@ -371,18 +356,12 @@
     <t>（認関係の下で事務を）委託する</t>
   </si>
   <si>
-    <t>She decided to___her legal matters to a trusted attorney.</t>
-  </si>
-  <si>
     <t>彼女は、頼できる弁護士に法律問題を委 託することにした。</t>
   </si>
   <si>
     <t>一般消費者</t>
   </si>
   <si>
-    <t>The regulation change impacts all___equally.</t>
-  </si>
-  <si>
     <t>general consumers</t>
   </si>
   <si>
@@ -392,9 +371,6 @@
     <t>委任（権限の委任）</t>
   </si>
   <si>
-    <t>The___of duties was announced in the morning meeting.</t>
-  </si>
-  <si>
     <t>delegation</t>
   </si>
   <si>
@@ -404,9 +380,6 @@
     <t>委任状</t>
   </si>
   <si>
-    <t>He granted his outside counsel the___.</t>
-  </si>
-  <si>
     <t>power of attorney</t>
   </si>
   <si>
@@ -416,13 +389,40 @@
     <t>違反</t>
   </si>
   <si>
-    <t>The___of contract led to immediate legal actions.</t>
-  </si>
-  <si>
     <t>breach</t>
   </si>
   <si>
     <t>契約違反は、直ちに法的措置につながった。</t>
+  </si>
+  <si>
+    <t>Her email served as a____to resign.</t>
+  </si>
+  <si>
+    <t>Business cannot be transacted in either House unless one-third____of total membership is present.</t>
+  </si>
+  <si>
+    <t>The____of financial records to the accountant was completed yesterday.</t>
+  </si>
+  <si>
+    <t>The____provided all necessary documents for shipping.</t>
+  </si>
+  <si>
+    <t>We will____the task to a team member with the most experience.</t>
+  </si>
+  <si>
+    <t>She decided to____her legal matters to a trusted attorney.</t>
+  </si>
+  <si>
+    <t>The regulation change impacts all____equally.</t>
+  </si>
+  <si>
+    <t>The____of duties was announced in the morning meeting.</t>
+  </si>
+  <si>
+    <t>He granted his outside counsel the____.</t>
+  </si>
+  <si>
+    <t>The____of contract led to immediate legal actions.</t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,13 +1035,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1052,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1069,13 +1069,13 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1100,16 +1100,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1117,16 +1117,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1134,16 +1134,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1151,16 +1151,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1168,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1185,16 +1185,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E12BD1-57F8-F949-B739-A7120EC74C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218426E1-C4F2-0D49-AD8A-EB38B345A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -234,195 +234,195 @@
     <t>買主の意思は、契約の話し合いの中で、明確だった。</t>
   </si>
   <si>
+    <t>The defendant____violated the agreement.</t>
+  </si>
+  <si>
+    <t>cloze_en</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>or less</t>
+  </si>
+  <si>
+    <t>etc.</t>
+  </si>
+  <si>
+    <t>opposite party</t>
+  </si>
+  <si>
+    <t>the other party</t>
+  </si>
+  <si>
+    <t>knowingly</t>
+  </si>
+  <si>
+    <t>hereinafter referred to as</t>
+  </si>
+  <si>
+    <t>the same applies hereinafter</t>
+  </si>
+  <si>
+    <t>objection</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>User(s) refers to the individual defined in Article 1. ____.</t>
+  </si>
+  <si>
+    <t>意思表示</t>
+  </si>
+  <si>
+    <t>①委託、②委任</t>
+  </si>
+  <si>
+    <t>manifestation of intention</t>
+  </si>
+  <si>
+    <t>彼女のメールは、辞任の意思表示となった。</t>
+  </si>
+  <si>
+    <t>... or more</t>
+  </si>
+  <si>
+    <t>両議院は、各々その総議員の3分の1以上の出席がなければ、議事を開き議決すること ができない。</t>
+  </si>
+  <si>
+    <t>entrustment</t>
+  </si>
+  <si>
+    <t>会計士に対する財務記録の委託は、昨日、 完了した。</t>
+  </si>
+  <si>
+    <t>①（販売 運送等の）委託者（末尾 ③参照）、②荷送人</t>
+  </si>
+  <si>
+    <t>consignor</t>
+  </si>
+  <si>
+    <t>委託者は、船積みに必要な書類をすべて提 供した。</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>① （権限を代わって行使することを） 委託する、②委任する</t>
+  </si>
+  <si>
+    <t>私達は、最も経験のあるチームメンバーに 仕事を委託する。</t>
+  </si>
+  <si>
+    <t>entrust</t>
+  </si>
+  <si>
+    <t>（認関係の下で事務を）委託する</t>
+  </si>
+  <si>
+    <t>彼女は、頼できる弁護士に法律問題を委 託することにした。</t>
+  </si>
+  <si>
+    <t>一般消費者</t>
+  </si>
+  <si>
+    <t>general consumers</t>
+  </si>
+  <si>
+    <t>この規則の変更は、すべての一般消費者に 等しく影響する。</t>
+  </si>
+  <si>
+    <t>委任（権限の委任）</t>
+  </si>
+  <si>
+    <t>delegation</t>
+  </si>
+  <si>
+    <t>職務権限の委任が、朝のミーティングで発 表された。</t>
+  </si>
+  <si>
+    <t>委任状</t>
+  </si>
+  <si>
+    <t>power of attorney</t>
+  </si>
+  <si>
+    <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
+  </si>
+  <si>
+    <t>違反</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>契約違反は、直ちに法的措置につながった。</t>
+  </si>
+  <si>
+    <t>The____of financial records to the accountant was completed yesterday.</t>
+  </si>
+  <si>
     <t>The duration of the right is 20 years or more
-and 50 years____.</t>
+and 50 years ____.</t>
   </si>
   <si>
     <t>The documents required include a passport,
-visa,____.</t>
-  </si>
-  <si>
-    <t>The____must respond within 30 days.</t>
-  </si>
-  <si>
-    <t>A manifestation of intention becomes effective at the time notice thereof reaches____.</t>
-  </si>
-  <si>
-    <t>The defendant____violated the agreement.</t>
-  </si>
-  <si>
-    <t>a person that has right to perform an obligation (____a "performer")</t>
-  </si>
-  <si>
-    <t>The lawyer filed an____to the motion.</t>
-  </si>
-  <si>
-    <t>The expert's____clarified the issue.</t>
-  </si>
-  <si>
-    <t>The____was duly executed.</t>
-  </si>
-  <si>
-    <t>The buyer's____was clear in the contract discussions.</t>
-  </si>
-  <si>
-    <t>cloze_en</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>or less</t>
-  </si>
-  <si>
-    <t>etc.</t>
-  </si>
-  <si>
-    <t>opposite party</t>
-  </si>
-  <si>
-    <t>the other party</t>
-  </si>
-  <si>
-    <t>knowingly</t>
-  </si>
-  <si>
-    <t>hereinafter referred to as</t>
-  </si>
-  <si>
-    <t>the same applies hereinafter</t>
-  </si>
-  <si>
-    <t>objection</t>
-  </si>
-  <si>
-    <t>opinion</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>User(s) refers to the individual defined in Article 1. ____.</t>
-  </si>
-  <si>
-    <t>意思表示</t>
-  </si>
-  <si>
-    <t>①委託、②委任</t>
-  </si>
-  <si>
-    <t>manifestation of intention</t>
-  </si>
-  <si>
-    <t>彼女のメールは、辞任の意思表示となった。</t>
-  </si>
-  <si>
-    <t>... or more</t>
-  </si>
-  <si>
-    <t>両議院は、各々その総議員の3分の1以上の出席がなければ、議事を開き議決すること ができない。</t>
-  </si>
-  <si>
-    <t>entrustment</t>
-  </si>
-  <si>
-    <t>会計士に対する財務記録の委託は、昨日、 完了した。</t>
-  </si>
-  <si>
-    <t>①（販売 運送等の）委託者（末尾 ③参照）、②荷送人</t>
-  </si>
-  <si>
-    <t>consignor</t>
-  </si>
-  <si>
-    <t>委託者は、船積みに必要な書類をすべて提 供した。</t>
-  </si>
-  <si>
-    <t>delegate</t>
-  </si>
-  <si>
-    <t>① （権限を代わって行使することを） 委託する、②委任する</t>
-  </si>
-  <si>
-    <t>私達は、最も経験のあるチームメンバーに 仕事を委託する。</t>
-  </si>
-  <si>
-    <t>entrust</t>
-  </si>
-  <si>
-    <t>（認関係の下で事務を）委託する</t>
-  </si>
-  <si>
-    <t>彼女は、頼できる弁護士に法律問題を委 託することにした。</t>
-  </si>
-  <si>
-    <t>一般消費者</t>
-  </si>
-  <si>
-    <t>general consumers</t>
-  </si>
-  <si>
-    <t>この規則の変更は、すべての一般消費者に 等しく影響する。</t>
-  </si>
-  <si>
-    <t>委任（権限の委任）</t>
-  </si>
-  <si>
-    <t>delegation</t>
-  </si>
-  <si>
-    <t>職務権限の委任が、朝のミーティングで発 表された。</t>
-  </si>
-  <si>
-    <t>委任状</t>
-  </si>
-  <si>
-    <t>power of attorney</t>
-  </si>
-  <si>
-    <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
-  </si>
-  <si>
-    <t>違反</t>
-  </si>
-  <si>
-    <t>breach</t>
-  </si>
-  <si>
-    <t>契約違反は、直ちに法的措置につながった。</t>
-  </si>
-  <si>
-    <t>Her email served as a____to resign.</t>
-  </si>
-  <si>
-    <t>Business cannot be transacted in either House unless one-third____of total membership is present.</t>
-  </si>
-  <si>
-    <t>The____of financial records to the accountant was completed yesterday.</t>
-  </si>
-  <si>
-    <t>The____provided all necessary documents for shipping.</t>
-  </si>
-  <si>
-    <t>We will____the task to a team member with the most experience.</t>
-  </si>
-  <si>
-    <t>She decided to____her legal matters to a trusted attorney.</t>
-  </si>
-  <si>
-    <t>The regulation change impacts all____equally.</t>
-  </si>
-  <si>
-    <t>The____of duties was announced in the morning meeting.</t>
-  </si>
-  <si>
-    <t>He granted his outside counsel the____.</t>
-  </si>
-  <si>
-    <t>The____of contract led to immediate legal actions.</t>
+visa, ____.</t>
+  </si>
+  <si>
+    <t>The ____must respond within 30 days.</t>
+  </si>
+  <si>
+    <t>A manifestation of intention becomes effective at the time notice thereof reaches ____.</t>
+  </si>
+  <si>
+    <t>a person that has right to perform an obligation ( ____ a "performer")</t>
+  </si>
+  <si>
+    <t>The lawyer filed an ____ to the motion.</t>
+  </si>
+  <si>
+    <t>The expert's ____ clarified the issue.</t>
+  </si>
+  <si>
+    <t>The ____ was duly executed.</t>
+  </si>
+  <si>
+    <t>The buyer's ____ was clear in the contract discussions.</t>
+  </si>
+  <si>
+    <t>Her email served as a ____ to resign.</t>
+  </si>
+  <si>
+    <t>Business cannot be transacted in either House unless one-third ____ of total membership is present.</t>
+  </si>
+  <si>
+    <t>The ____ provided all necessary documents for shipping.</t>
+  </si>
+  <si>
+    <t>We will ____ the task to a team member with the most experience.</t>
+  </si>
+  <si>
+    <t>She decided to ____ her legal matters to a trusted attorney.</t>
+  </si>
+  <si>
+    <t>The regulation change impacts all ____ equally.</t>
+  </si>
+  <si>
+    <t>The ____ of duties was announced in the morning meeting.</t>
+  </si>
+  <si>
+    <t>He granted his outside counsel the ____.</t>
+  </si>
+  <si>
+    <t>The ____ of contract led to immediate legal actions.</t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -848,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -865,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -882,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -899,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -933,10 +933,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -950,10 +950,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -967,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -984,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1001,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -1032,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1052,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1066,16 +1066,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1100,16 +1100,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1117,16 +1117,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1134,16 +1134,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1151,16 +1151,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1168,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1185,16 +1185,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218426E1-C4F2-0D49-AD8A-EB38B345A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438EFC5B-D845-7145-9EF2-D353E56F5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>契約違反は、直ちに法的措置につながった。</t>
   </si>
   <si>
-    <t>The____of financial records to the accountant was completed yesterday.</t>
-  </si>
-  <si>
     <t>The duration of the right is 20 years or more
 and 50 years ____.</t>
   </si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>The ____ of contract led to immediate legal actions.</t>
+  </si>
+  <si>
+    <t>The ____ of financial records to the accountant was completed yesterday.</t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -933,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -984,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1001,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -1018,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -1035,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -1069,7 +1069,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1086,7 +1086,7 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -1103,7 +1103,7 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1120,7 +1120,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -1137,7 +1137,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -1154,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -1171,7 +1171,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -1188,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438EFC5B-D845-7145-9EF2-D353E56F5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4920E60-D9F5-6D4E-A457-A7B98E3B28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -243,39 +243,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>or less</t>
-  </si>
-  <si>
-    <t>etc.</t>
-  </si>
-  <si>
-    <t>opposite party</t>
-  </si>
-  <si>
-    <t>the other party</t>
-  </si>
-  <si>
-    <t>knowingly</t>
-  </si>
-  <si>
-    <t>hereinafter referred to as</t>
-  </si>
-  <si>
-    <t>the same applies hereinafter</t>
-  </si>
-  <si>
-    <t>objection</t>
-  </si>
-  <si>
-    <t>opinion</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
     <t>User(s) refers to the individual defined in Article 1. ____.</t>
   </si>
   <si>
@@ -285,45 +252,27 @@
     <t>①委託、②委任</t>
   </si>
   <si>
-    <t>manifestation of intention</t>
-  </si>
-  <si>
     <t>彼女のメールは、辞任の意思表示となった。</t>
   </si>
   <si>
-    <t>... or more</t>
-  </si>
-  <si>
     <t>両議院は、各々その総議員の3分の1以上の出席がなければ、議事を開き議決すること ができない。</t>
   </si>
   <si>
-    <t>entrustment</t>
-  </si>
-  <si>
     <t>会計士に対する財務記録の委託は、昨日、 完了した。</t>
   </si>
   <si>
     <t>①（販売 運送等の）委託者（末尾 ③参照）、②荷送人</t>
   </si>
   <si>
-    <t>consignor</t>
-  </si>
-  <si>
     <t>委託者は、船積みに必要な書類をすべて提 供した。</t>
   </si>
   <si>
-    <t>delegate</t>
-  </si>
-  <si>
     <t>① （権限を代わって行使することを） 委託する、②委任する</t>
   </si>
   <si>
     <t>私達は、最も経験のあるチームメンバーに 仕事を委託する。</t>
   </si>
   <si>
-    <t>entrust</t>
-  </si>
-  <si>
     <t>（認関係の下で事務を）委託する</t>
   </si>
   <si>
@@ -333,34 +282,22 @@
     <t>一般消費者</t>
   </si>
   <si>
-    <t>general consumers</t>
-  </si>
-  <si>
     <t>この規則の変更は、すべての一般消費者に 等しく影響する。</t>
   </si>
   <si>
     <t>委任（権限の委任）</t>
   </si>
   <si>
-    <t>delegation</t>
-  </si>
-  <si>
     <t>職務権限の委任が、朝のミーティングで発 表された。</t>
   </si>
   <si>
     <t>委任状</t>
   </si>
   <si>
-    <t>power of attorney</t>
-  </si>
-  <si>
     <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
   </si>
   <si>
     <t>違反</t>
-  </si>
-  <si>
-    <t>breach</t>
   </si>
   <si>
     <t>契約違反は、直ちに法的措置につながった。</t>
@@ -423,6 +360,69 @@
   </si>
   <si>
     <t>The ____ of financial records to the accountant was completed yesterday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> or less </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> opposite party </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the other party </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knowingly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hereinafter referred to as </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the same applies hereinafter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> objection </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> opinion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intent </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manifestation of intention </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... or more </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> entrustment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consignor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delegate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> entrust </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general consumers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delegation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> power of attorney </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> breach </t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="173" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -865,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -882,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -899,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -933,10 +933,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -950,10 +950,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -967,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -984,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1001,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -1032,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1052,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1066,16 +1066,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1100,16 +1100,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1117,16 +1117,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1134,16 +1134,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1151,16 +1151,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1168,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1185,16 +1185,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4920E60-D9F5-6D4E-A457-A7B98E3B28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D5FB0-20E2-C84E-93D8-C2E78A50BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -398,9 +398,6 @@
     <t xml:space="preserve"> manifestation of intention </t>
   </si>
   <si>
-    <t xml:space="preserve"> ... or more </t>
-  </si>
-  <si>
     <t xml:space="preserve"> entrustment </t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t xml:space="preserve"> breach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  or more </t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>31</v>
@@ -1072,7 +1072,7 @@
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
@@ -1106,7 +1106,7 @@
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
@@ -1140,7 +1140,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>40</v>
@@ -1157,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -1174,7 +1174,7 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>44</v>
@@ -1191,7 +1191,7 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>46</v>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D5FB0-20E2-C84E-93D8-C2E78A50BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBD817-4DF4-3A48-BC83-64FE37655D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">  or more </t>
+  </si>
+  <si>
+    <t>…以上</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBD817-4DF4-3A48-BC83-64FE37655D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBEEAC-C5B5-5148-AB31-9C787B15E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBEEAC-C5B5-5148-AB31-9C787B15E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A26946-D0DF-0B4F-B77A-9F3A31C899A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="14460" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
+    <workbookView xWindow="10280" yWindow="-23340" windowWidth="18960" windowHeight="23180" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -47,13 +47,7 @@
     <t>full_ja</t>
   </si>
   <si>
-    <t>…以下</t>
-  </si>
-  <si>
     <t>…等</t>
-  </si>
-  <si>
-    <t>相手方</t>
   </si>
   <si>
     <r>
@@ -152,10 +146,6 @@
     <t xml:space="preserve">悪意で </t>
   </si>
   <si>
-    <t>以下「…
-」という</t>
-  </si>
-  <si>
     <r>
       <t>被告は、</t>
     </r>
@@ -204,9 +194,6 @@
     </r>
   </si>
   <si>
-    <t>以下同じ</t>
-  </si>
-  <si>
     <t>ユーザーとは、第1条に定義された個人をいう。以下同じ。</t>
   </si>
   <si>
@@ -246,9 +233,6 @@
     <t>User(s) refers to the individual defined in Article 1. ____.</t>
   </si>
   <si>
-    <t>意思表示</t>
-  </si>
-  <si>
     <t>①委託、②委任</t>
   </si>
   <si>
@@ -279,9 +263,6 @@
     <t>彼女は、頼できる弁護士に法律問題を委 託することにした。</t>
   </si>
   <si>
-    <t>一般消費者</t>
-  </si>
-  <si>
     <t>この規則の変更は、すべての一般消費者に 等しく影響する。</t>
   </si>
   <si>
@@ -289,9 +270,6 @@
   </si>
   <si>
     <t>職務権限の委任が、朝のミーティングで発 表された。</t>
-  </si>
-  <si>
-    <t>委任状</t>
   </si>
   <si>
     <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
@@ -425,7 +403,160 @@
     <t xml:space="preserve">  or more </t>
   </si>
   <si>
-    <t>…以上</t>
+    <t>①違反、②犯罪</t>
+  </si>
+  <si>
+    <t>The____was recorded by security cameras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> offense </t>
+  </si>
+  <si>
+    <t>この犯罪は、監視カメラに記録されていた。</t>
+  </si>
+  <si>
+    <t>Parking in that spot is a clear____of local ordinances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> violation </t>
+  </si>
+  <si>
+    <t>あの場所への駐車は明らかな条例違反だ。</t>
+  </si>
+  <si>
+    <t>違反行為</t>
+  </si>
+  <si>
+    <t>The company was investigated for____last year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> illegal conduct </t>
+  </si>
+  <si>
+    <t>その会社は、昨年、違反行為で調査を受け ている。</t>
+  </si>
+  <si>
+    <t>違反調查(3)</t>
+  </si>
+  <si>
+    <t>一般消費者(2)</t>
+  </si>
+  <si>
+    <t>…以上(2)</t>
+  </si>
+  <si>
+    <t>以下同じ(3)</t>
+  </si>
+  <si>
+    <t>以下「…」という(4)</t>
+  </si>
+  <si>
+    <t>相手方(3)</t>
+  </si>
+  <si>
+    <t>相手方(2)</t>
+  </si>
+  <si>
+    <t>…以下(2)</t>
+  </si>
+  <si>
+    <t>意思表示(3)</t>
+  </si>
+  <si>
+    <t>委任状(3)</t>
+  </si>
+  <si>
+    <t>An____of privacy laws is underway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigation into violation </t>
+  </si>
+  <si>
+    <t>個人情報保護法に関する違反調査が行われ ている。</t>
+  </si>
+  <si>
+    <t>違法な(i)</t>
+  </si>
+  <si>
+    <t>Selling unlicensed merchandise is____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> illegal </t>
+  </si>
+  <si>
+    <t>非正規品の販売は、違法な行為である。</t>
+  </si>
+  <si>
+    <t>違法な(u)</t>
+  </si>
+  <si>
+    <t>____entry into the property will result in arrest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unlawful </t>
+  </si>
+  <si>
+    <t>敷地内への違法な侵入は、逮捕の対象となる。</t>
+  </si>
+  <si>
+    <t>違約金</t>
+  </si>
+  <si>
+    <t>The____for late payment is outlined in the agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penalty </t>
+  </si>
+  <si>
+    <t>支払いが遅れた場合の違約金は、契約書に 記載されている。</t>
+  </si>
+  <si>
+    <t>The document requires a____for validation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seal impression </t>
+  </si>
+  <si>
+    <t>この書類には、認証のための印影が必要で ある。</t>
+  </si>
+  <si>
+    <t>印影(2)</t>
+  </si>
+  <si>
+    <t>印鑑（印章の趣旨）</t>
+  </si>
+  <si>
+    <t>She affixed her____to the contract as a sign of approval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seal </t>
+  </si>
+  <si>
+    <t>彼女は、承認の証として、契約書に印鑑を 押した。</t>
+  </si>
+  <si>
+    <t>印鑑証明書(3)</t>
+  </si>
+  <si>
+    <t>A____must be submitted by the end of the week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> registered seal certificate </t>
+  </si>
+  <si>
+    <t>週末までに、印鑑証明書を提出しなければ ならない。</t>
+  </si>
+  <si>
+    <t>請負(3)</t>
+  </si>
+  <si>
+    <t>The____requires completion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contract for work </t>
+  </si>
+  <si>
+    <t>請負 、完成を要する 。</t>
   </si>
 </sst>
 </file>
@@ -812,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -848,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -865,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -882,16 +1013,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -899,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -916,33 +1047,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -950,16 +1081,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -967,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -984,16 +1115,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1001,16 +1132,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1018,16 +1149,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1035,16 +1166,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1052,16 +1183,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1069,16 +1200,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1086,16 +1217,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1103,16 +1234,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1120,16 +1251,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1137,16 +1268,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1154,16 +1285,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1171,16 +1302,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1188,16 +1319,248 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A26946-D0DF-0B4F-B77A-9F3A31C899A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED34CC3-6AB8-CC47-9BD6-99CA86CF9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10280" yWindow="-23340" windowWidth="18960" windowHeight="23180" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
@@ -945,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED34CC3-6AB8-CC47-9BD6-99CA86CF9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F572EB9-D3C2-584E-85C5-816A7C77A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="-23340" windowWidth="18960" windowHeight="23180" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
+    <workbookView xWindow="6340" yWindow="920" windowWidth="22920" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>あの場所への駐車は明らかな条例違反だ。</t>
   </si>
   <si>
-    <t>違反行為</t>
-  </si>
-  <si>
     <t>The company was investigated for____last year.</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>請負 、完成を要する 。</t>
+  </si>
+  <si>
+    <t>違反行為(2)</t>
   </si>
 </sst>
 </file>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1081,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
@@ -1183,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1268,7 +1268,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -1302,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -1370,16 +1370,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1387,16 +1387,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1404,16 +1404,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1421,16 +1421,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1438,16 +1438,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1455,16 +1455,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1472,16 +1472,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1489,16 +1489,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1506,16 +1506,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
         <v>128</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kensho/Desktop/EnglishQuizWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F572EB9-D3C2-584E-85C5-816A7C77A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4949F-B985-6B4B-90B9-93C664B8AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="920" windowWidth="22920" windowHeight="17040" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14480" windowHeight="17020" xr2:uid="{05B6793B-06E9-A249-B4C4-971D1A19416D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -275,9 +275,6 @@
     <t>彼は、外部弁護士に対して、委任状を付与 した。</t>
   </si>
   <si>
-    <t>違反</t>
-  </si>
-  <si>
     <t>契約違反は、直ちに法的措置につながった。</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>The____was recorded by security cameras.</t>
   </si>
   <si>
-    <t xml:space="preserve"> offense </t>
-  </si>
-  <si>
     <t>この犯罪は、監視カメラに記録されていた。</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>____entry into the property will result in arrest.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unlawful </t>
-  </si>
-  <si>
     <t>敷地内への違法な侵入は、逮捕の対象となる。</t>
   </si>
   <si>
@@ -557,6 +548,138 @@
   </si>
   <si>
     <t>違反行為(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  offense  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unlawful  </t>
+  </si>
+  <si>
+    <t>違反(b)</t>
+  </si>
+  <si>
+    <t>違反(v)</t>
+  </si>
+  <si>
+    <t>請負人</t>
+  </si>
+  <si>
+    <t>The____is responsible for completing the project on time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contractor </t>
+  </si>
+  <si>
+    <t>請負人は、期限内にプロジェクトを完了さ せる責任がある。</t>
+  </si>
+  <si>
+    <t>The company filed an____against the government.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> action </t>
+  </si>
+  <si>
+    <t>会社は、政府に対して、訴えを提起した。</t>
+  </si>
+  <si>
+    <t>①売買、②売渡</t>
+  </si>
+  <si>
+    <t>訴え（例：会社法第601条）•訴訟(a)</t>
+  </si>
+  <si>
+    <t>The____of the property must be approved by the board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sale </t>
+  </si>
+  <si>
+    <t>不動産の売渡しは、理事会の承認を得なけ ればならない。</t>
+  </si>
+  <si>
+    <t>運営</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Management </t>
+  </si>
+  <si>
+    <t>会社の運営は、会社法の定めるところによ る。</t>
+  </si>
+  <si>
+    <t>____of companies is governed by the Company act.</t>
+  </si>
+  <si>
+    <t>①営業、②商法上の営業に対し会社 法上の「事業」</t>
+  </si>
+  <si>
+    <t>Non-competition after a____transfer could be a bllind spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> business </t>
+  </si>
+  <si>
+    <t>事業譲渡後の競業禁止は、盲点となりうる。</t>
+  </si>
+  <si>
+    <t>You should consult with the Public Safety Commission with jurisdiction over the location of the office serving as the base of business____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operations </t>
+  </si>
+  <si>
+    <t>あなたは、営業の本拠となる事務所の所在 地を管轄する公安委員会に対して、相談す るべきである。</t>
+  </si>
+  <si>
+    <t>The____handles all financial transactions for the department in Tokyo.</t>
+  </si>
+  <si>
+    <t>営業所(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> business office </t>
+  </si>
+  <si>
+    <t>その営業所は、東京にある部門のすべての 経済的取引を処理している。</t>
+  </si>
+  <si>
+    <t>営業所(3)</t>
+  </si>
+  <si>
+    <t>The____was relocated to improve client access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> place of business </t>
+  </si>
+  <si>
+    <t>顧客へのアクセスを改善するため、営業所 を移転した。</t>
+  </si>
+  <si>
+    <t>This____has seen unprecedented growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> business year </t>
+  </si>
+  <si>
+    <t>この営業年度は、かつてない成長を遂げた。</t>
+  </si>
+  <si>
+    <t>営業年度(2)</t>
+  </si>
+  <si>
+    <t>営業</t>
+  </si>
+  <si>
+    <t>営業秘密(2)</t>
+  </si>
+  <si>
+    <t>They strictly guard their____to maintain a market edge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trade secret </t>
+  </si>
+  <si>
+    <t>彼らは、市場優位性を維持するため、営業 秘密を厳守している。</t>
   </si>
 </sst>
 </file>
@@ -943,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76365257-FA4F-A445-8037-0F0A0110D7F9}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -999,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1013,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1030,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -1053,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1064,13 +1187,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1081,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1101,10 +1224,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1118,10 +1241,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1135,10 +1258,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
@@ -1152,10 +1275,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -1166,13 +1289,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1183,13 +1306,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -1203,10 +1326,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
@@ -1220,10 +1343,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -1237,10 +1360,10 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
@@ -1254,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -1268,13 +1391,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>34</v>
@@ -1288,10 +1411,10 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>36</v>
@@ -1302,13 +1425,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
@@ -1319,16 +1442,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1336,16 +1459,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1353,16 +1476,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1370,16 +1493,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1387,16 +1510,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1404,16 +1527,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
         <v>103</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1421,16 +1544,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1438,16 +1561,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1455,16 +1578,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1472,16 +1595,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1489,16 +1612,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1506,61 +1629,386 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
